--- a/src/test/java/TestData/BasicTestsData/CheckboxDemoData.xlsx
+++ b/src/test/java/TestData/BasicTestsData/CheckboxDemoData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\SeleniumEasyFramework_Project\src\test\java\TestData\BasicTestsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF284CFA-B8E5-4036-BAA7-406896A6E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D69B680-2AAE-4E5C-A597-B60618BE6D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="2040" windowWidth="21645" windowHeight="11385" xr2:uid="{C42847E4-7260-48A3-8969-D387F7BCE65D}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21645" windowHeight="11385" xr2:uid="{C42847E4-7260-48A3-8969-D387F7BCE65D}"/>
   </bookViews>
   <sheets>
     <sheet name="checkBoxClickData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>expected</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>Failed for Raport Purpoose</t>
   </si>
 </sst>
 </file>
@@ -415,9 +418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD60AFE-AA26-469E-99EF-353E7E30F1D5}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -432,6 +437,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
